--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435929.5490565468</v>
+        <v>-392591.3289968294</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9154487.968327718</v>
+        <v>9176659.445823047</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>246.2895817091217</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>292.6788879584197</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>81.49380289235339</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>12.59031016622634</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>266.4131208477708</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>301.2231388236592</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X7" t="n">
-        <v>87.93365010186886</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1139,19 +1139,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>421.4246840122994</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>150.3256848869546</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>82.22393174992757</v>
+        <v>131.3131589043797</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>131.5251265062855</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>206.7675658388187</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225714</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>99.28616603324257</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>99.18456609162064</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>286.8446237410304</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225765</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>27.07950026194707</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>214.839218177886</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773006</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>143.194227193032</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2005,10 +2005,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>102.8562685532379</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571966</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>107.3711413827951</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2132,10 +2132,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>175.8847260613644</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864826</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.90507698037675</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>43.48898701015958</v>
+        <v>22.28534392847698</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170442</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>48.28314334362845</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>69.4540573175256</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>103.3456594571954</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999606</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925396</v>
+        <v>71.1267519979033</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629789</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063843</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245973</v>
+        <v>392.514659383245</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215092</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443325</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>94.49262140739783</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432402</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934607</v>
+        <v>9.51504000158377</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348852</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772312</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593276</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894733</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989347</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972019</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311179</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925396</v>
+        <v>71.12675199790336</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755938</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760553</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>104.0076614089814</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432402</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934444</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972019</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311179</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925396</v>
+        <v>71.12675199790336</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755938</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760553</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>126.8145494864312</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432402</v>
+        <v>76.08474665297341</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934444</v>
+        <v>9.515040001583833</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>37.55367720287732</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.3315093046215</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C2" t="n">
-        <v>925.2294405284488</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D2" t="n">
-        <v>893.3600597432974</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1715.792344604369</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1296.64988118368</v>
       </c>
       <c r="Y2" t="n">
-        <v>1385.631079789529</v>
+        <v>888.3637574833331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2407.084663816257</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>2128.651663069363</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1841.696154939793</v>
       </c>
       <c r="W4" t="n">
-        <v>851.7801684713901</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X4" t="n">
-        <v>851.7801684713901</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y4" t="n">
-        <v>851.7801684713901</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>557.5168885550254</v>
+        <v>1111.798517333797</v>
       </c>
       <c r="C5" t="n">
-        <v>523.4148197788528</v>
+        <v>1077.696448557624</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>641.7866637320687</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>612.052322930768</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>1392.10258274028</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y5" t="n">
-        <v>983.8164590399332</v>
+        <v>1538.098087818705</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.243825464227</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>770.682113947452</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8041211489747</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W7" t="n">
-        <v>1451.303983658873</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1362.482114869106</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1135.062444183214</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963.8890227729888</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C8" t="n">
-        <v>929.7869539968162</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D8" t="n">
-        <v>493.8771691712607</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>68.19567016893811</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>44.36864461854991</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>44.36864461854991</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461854991</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461854991</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714678</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>479.6233320714678</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>953.7174030612887</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215844</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174438</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1813.576776338529</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.434312917839</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1390.188593257897</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098427</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.083928446485</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930383</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.873224919992</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361536</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233744</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461854991</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900751</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452199</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997749</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876343</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.197505671505</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103851</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896058</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>868.3282952545621</v>
+        <v>1092.537220072603</v>
       </c>
       <c r="C10" t="n">
-        <v>785.2738187394838</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>619.3958259410065</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>449.6378221917438</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>272.9307681535</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438746</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461854991</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.36864461854991</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.3035356248535</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.5134173928146</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573728</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.256087731372</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957154</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.432230927495</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927495</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632867</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2197.014409632867</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1951.134963211322</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1672.701962464428</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1385.746454334858</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.72004992115</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>868.3282952545621</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>868.3282952545621</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2517.633444329803</v>
+        <v>2519.539796646209</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.490971513227</v>
+        <v>2081.397323829632</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.581186687671</v>
+        <v>1645.487539004077</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.806441845966</v>
+        <v>1211.712794162372</v>
       </c>
       <c r="F11" t="n">
-        <v>781.939012255174</v>
+        <v>783.8453645715797</v>
       </c>
       <c r="G11" t="n">
-        <v>380.5411808784379</v>
+        <v>382.4475331948435</v>
       </c>
       <c r="H11" t="n">
-        <v>91.41102632165416</v>
+        <v>93.31737863805978</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165415</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745721</v>
+        <v>528.1552767181176</v>
       </c>
       <c r="K11" t="n">
-        <v>1361.01600573275</v>
+        <v>1362.505568676296</v>
       </c>
       <c r="L11" t="n">
-        <v>2436.075971985609</v>
+        <v>2120.887071144635</v>
       </c>
       <c r="M11" t="n">
-        <v>2436.075971985609</v>
+        <v>2120.887071144635</v>
       </c>
       <c r="N11" t="n">
-        <v>2592.907709925949</v>
+        <v>2120.887071144635</v>
       </c>
       <c r="O11" t="n">
-        <v>3573.087376496255</v>
+        <v>3101.066737714942</v>
       </c>
       <c r="P11" t="n">
-        <v>4401.397251329651</v>
+        <v>3929.376612548338</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.397251329651</v>
+        <v>4475.875398506932</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082708</v>
+        <v>4645.029463259989</v>
       </c>
       <c r="S11" t="n">
-        <v>4486.899442266545</v>
+        <v>4561.377589443826</v>
       </c>
       <c r="T11" t="n">
-        <v>4266.832215139583</v>
+        <v>4341.310362316864</v>
       </c>
       <c r="U11" t="n">
-        <v>4266.832215139583</v>
+        <v>4341.310362316864</v>
       </c>
       <c r="V11" t="n">
-        <v>3904.21526507341</v>
+        <v>3978.693412250691</v>
       </c>
       <c r="W11" t="n">
-        <v>3771.361601935747</v>
+        <v>3573.837957661724</v>
       </c>
       <c r="X11" t="n">
-        <v>3352.219138515058</v>
+        <v>3154.695494241035</v>
       </c>
       <c r="Y11" t="n">
-        <v>2943.933014814711</v>
+        <v>2945.839367131116</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.582771312947</v>
+        <v>599.0723342564926</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>397.5255842396881</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>303.4051695666418</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>134.6362414489873</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165415</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>118.9642624256574</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134894</v>
+        <v>846.862014557035</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.8866723927101</v>
+        <v>720.3762353362557</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9070633985855</v>
+        <v>1171.958749877081</v>
       </c>
       <c r="C13" t="n">
-        <v>769.3453518818104</v>
+        <v>999.3970383603061</v>
       </c>
       <c r="D13" t="n">
-        <v>603.4673590833331</v>
+        <v>833.5190455618288</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7093553340703</v>
+        <v>663.7610418125661</v>
       </c>
       <c r="F13" t="n">
-        <v>257.0023012958265</v>
+        <v>487.0539877743223</v>
       </c>
       <c r="G13" t="n">
-        <v>91.41102632165415</v>
+        <v>321.4627128001499</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165415</v>
+        <v>181.5605384905244</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165415</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>454.2387290010253</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>872.4486107689863</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2688.142377873372</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.831467181769</v>
+        <v>2528.901009171368</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.952020760225</v>
+        <v>2528.901009171368</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.51902001333</v>
+        <v>2250.468008424473</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.56351188376</v>
+        <v>1963.512500294904</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.537107470052</v>
+        <v>1691.486095881195</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.145352803464</v>
+        <v>1591.19703928196</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.725682117573</v>
+        <v>1363.777368596068</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2221.116179943604</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C14" t="n">
-        <v>1782.973707127028</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D14" t="n">
-        <v>1347.063922301473</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E14" t="n">
-        <v>913.2891774597676</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F14" t="n">
-        <v>485.4217478689753</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G14" t="n">
-        <v>385.2353174733997</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H14" t="n">
-        <v>96.10516291661592</v>
+        <v>96.69921876587887</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="J14" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L14" t="n">
-        <v>2281.115753715442</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M14" t="n">
-        <v>2281.115753715442</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N14" t="n">
-        <v>2281.115753715442</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285749</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119145</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.104081077739</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650943</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014633</v>
+        <v>4730.46959583478</v>
       </c>
       <c r="T14" t="n">
-        <v>4501.539044887671</v>
+        <v>4730.46959583478</v>
       </c>
       <c r="U14" t="n">
-        <v>4242.316742204688</v>
+        <v>4471.247293151797</v>
       </c>
       <c r="V14" t="n">
-        <v>3879.699792138515</v>
+        <v>4181.505248968938</v>
       </c>
       <c r="W14" t="n">
-        <v>3474.844337549548</v>
+        <v>3776.649794379971</v>
       </c>
       <c r="X14" t="n">
-        <v>3055.701874128858</v>
+        <v>3357.507330959282</v>
       </c>
       <c r="Y14" t="n">
-        <v>2647.415750428512</v>
+        <v>2949.221207258935</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.6011999935473</v>
+        <v>1035.438415695275</v>
       </c>
       <c r="C16" t="n">
-        <v>774.0394884767722</v>
+        <v>862.8767041784995</v>
       </c>
       <c r="D16" t="n">
-        <v>608.1614956782948</v>
+        <v>696.9987113800223</v>
       </c>
       <c r="E16" t="n">
-        <v>438.403491929032</v>
+        <v>527.2407076307595</v>
       </c>
       <c r="F16" t="n">
-        <v>261.6964378907883</v>
+        <v>350.5336535925159</v>
       </c>
       <c r="G16" t="n">
-        <v>96.10516291661592</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="H16" t="n">
-        <v>96.10516291661592</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.525603776731</v>
+        <v>2532.282849299187</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.646157355186</v>
+        <v>2286.403402877642</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.213156608292</v>
+        <v>2259.050372310019</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.257648478722</v>
+        <v>1972.09486418045</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.231244065014</v>
+        <v>1700.068459766741</v>
       </c>
       <c r="X16" t="n">
-        <v>1365.839489398426</v>
+        <v>1454.676705100153</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.419818712534</v>
+        <v>1227.257034414262</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.744370297626</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.601897481049</v>
+        <v>2084.779163957452</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.692112655493</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>787.0499382229957</v>
+        <v>787.227204699399</v>
       </c>
       <c r="G17" t="n">
-        <v>385.6521068462596</v>
+        <v>385.8293733226628</v>
       </c>
       <c r="H17" t="n">
-        <v>96.52195228947585</v>
+        <v>96.69921876587887</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M17" t="n">
-        <v>2827.614539674037</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N17" t="n">
-        <v>2827.614539674037</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O17" t="n">
-        <v>3807.794206244343</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P17" t="n">
-        <v>4636.104081077739</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4636.104081077739</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650943</v>
       </c>
       <c r="S17" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650943</v>
       </c>
       <c r="T17" t="n">
-        <v>4585.190918703835</v>
+        <v>4594.054242523982</v>
       </c>
       <c r="U17" t="n">
-        <v>4325.968616020851</v>
+        <v>4334.831939840999</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.327982492536</v>
+        <v>3972.214989774825</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.472527903569</v>
+        <v>3567.359535185858</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.33006448288</v>
+        <v>3148.217071765169</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.043940782533</v>
+        <v>2739.930948064823</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>943.4225477416035</v>
+        <v>946.7784664699501</v>
       </c>
       <c r="C19" t="n">
-        <v>770.8608362248284</v>
+        <v>774.2167549531749</v>
       </c>
       <c r="D19" t="n">
-        <v>770.8608362248284</v>
+        <v>608.3387621546976</v>
       </c>
       <c r="E19" t="n">
-        <v>666.9656154639822</v>
+        <v>438.5807584054349</v>
       </c>
       <c r="F19" t="n">
-        <v>490.2585614257384</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G19" t="n">
-        <v>324.667286451566</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="H19" t="n">
-        <v>184.7651121419406</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.346951524788</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2691.346951524788</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T19" t="n">
-        <v>2445.467505103243</v>
+        <v>2307.821224172271</v>
       </c>
       <c r="U19" t="n">
-        <v>2167.034504356348</v>
+        <v>2029.388223425376</v>
       </c>
       <c r="V19" t="n">
-        <v>1880.078996226778</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W19" t="n">
-        <v>1608.05259181307</v>
+        <v>1470.406310882098</v>
       </c>
       <c r="X19" t="n">
-        <v>1362.660837146482</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.241166460591</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.744370297625</v>
+        <v>2229.979503763752</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.601897481048</v>
+        <v>1791.837030947175</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655493</v>
+        <v>1355.927246121619</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>922.1525012799145</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>494.2850716891223</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462597</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947592</v>
+        <v>96.69921876587887</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="J20" t="n">
-        <v>96.10516291661592</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K20" t="n">
-        <v>249.4788687791922</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L20" t="n">
-        <v>1324.538835032052</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M20" t="n">
-        <v>1324.538835032052</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N20" t="n">
-        <v>2450.269818468499</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O20" t="n">
-        <v>3430.449485038805</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.759359872201</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4805.258145830796</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830796</v>
+        <v>4814.121469650943</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014633</v>
+        <v>4730.46959583478</v>
       </c>
       <c r="T20" t="n">
-        <v>4543.944932558709</v>
+        <v>4510.402368707819</v>
       </c>
       <c r="U20" t="n">
-        <v>4543.944932558709</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.327982492536</v>
+        <v>3888.563115958662</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.472527903569</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.330064482879</v>
+        <v>3064.565197949006</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.043940782532</v>
+        <v>2656.27907424866</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911043</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>306.609743218058</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342196</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004035</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432859</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>805.5990003342281</v>
+        <v>946.77846646995</v>
       </c>
       <c r="C22" t="n">
-        <v>633.037288817453</v>
+        <v>774.2167549531749</v>
       </c>
       <c r="D22" t="n">
-        <v>467.1592960189757</v>
+        <v>608.3387621546976</v>
       </c>
       <c r="E22" t="n">
-        <v>467.1592960189757</v>
+        <v>438.5807584054349</v>
       </c>
       <c r="F22" t="n">
-        <v>467.1592960189757</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G22" t="n">
-        <v>301.5680210448034</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6658467351779</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10516291661592</v>
+        <v>96.28242939301887</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2553.523404117412</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.643957695867</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.210956948973</v>
+        <v>2170.390423084695</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.255448819403</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.229044405695</v>
+        <v>1611.408510541417</v>
       </c>
       <c r="X22" t="n">
-        <v>1224.837289739107</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y22" t="n">
-        <v>997.4176190532153</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903952</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736202</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751429</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258801</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876363</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134639</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903958</v>
+        <v>949.578225095767</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736209</v>
+        <v>777.016513578992</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751434</v>
+        <v>611.1385207805147</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258808</v>
+        <v>441.3805170312519</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287637</v>
+        <v>264.6734629930081</v>
       </c>
       <c r="G28" t="n">
         <v>242.1630145804051</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.92045017358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.92045017358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.652494875571</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795275</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>917.6259669185114</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>751.7479741200341</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>581.9899703707714</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>405.2829163325276</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>239.6916413583553</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6637,7 +6637,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q31" t="n">
         <v>2718.920450173579</v>
@@ -6652,19 +6652,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2648.764836721533</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2402.885390299988</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2124.452389553094</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>372.24167025222</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780477</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612125</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>825.0337389223141</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>670.9624159017136</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>513.0110819303277</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>348.1106976699607</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>194.3260924736654</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882666</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758678</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>483.36057397738</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856843</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440137</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999259</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355591</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386573</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1875.21855003488</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399049</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510338</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218675</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779638</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936666</v>
+        <v>834.6448904390656</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080655</v>
+        <v>680.5735674184651</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716789</v>
+        <v>522.6222334470792</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463113</v>
+        <v>357.7218491867122</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850151</v>
+        <v>203.9372439904165</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773799</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856841</v>
+        <v>913.1421727946379</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.67764751601</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872342</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2159.978539903324</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551632</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.6099669158</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1391.024882027089</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119074</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835856</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197256</v>
+        <v>376.2024849218675</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1095.290472309704</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936671</v>
+        <v>934.5354305708062</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080659</v>
+        <v>780.4641075502057</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716793</v>
+        <v>622.5127735788197</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>457.6123893184527</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850155</v>
+        <v>303.8277841221571</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>483.36057397738</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946381</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2760.568187647751</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2526.495411004083</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2259.869080035065</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1984.720241683372</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1724.500507047541</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1490.91542215883</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1275.302421250815</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>131.8679565343714</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897181</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318738</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318738</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840087</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>87.8130212184885</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>766.0419216851915</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>158.4158969094342</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>924.6521327148791</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>18.36946185017405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>390.7519505994605</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>18.36946185017405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>154.9229352147235</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140017</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140017</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.2817735367915</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>197.4356966245244</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.1992869713481</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>72.14615682448135</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>248.5691704774787</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>207.1973566021726</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>215.7965533724798</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>65.2041551585322</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>290.0127116801736</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.98182879432734</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>22.86827275269466</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.446375214271</v>
+        <v>141.6500182959536</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>90.22000922290077</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>88.19489769745771</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933381</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>32.32192807903333</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.08474665297335</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>22.80688807744981</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.08474665297341</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.515040001583834</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>108.406674732008</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>795810.0536271459</v>
+        <v>803292.9548617464</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>795810.0536271459</v>
+        <v>803292.9548617464</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799819.2466765704</v>
+        <v>803292.9548617464</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740305.7900407938</v>
+        <v>749086.0322898112</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>767975.42067462</v>
+        <v>769020.3195237701</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>767975.4206746197</v>
+        <v>769020.3195237699</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>767975.4206746198</v>
+        <v>769020.3195237699</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>804260.1165382909</v>
+        <v>804260.116538291</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816343.1871396931</v>
+        <v>812958.39858178</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816343.1871396931</v>
+        <v>812958.39858178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816343.1871396931</v>
+        <v>812958.39858178</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>160844.1959671225</v>
       </c>
       <c r="E2" t="n">
-        <v>145488.6467860365</v>
+        <v>147214.1845036231</v>
       </c>
       <c r="F2" t="n">
-        <v>150926.4228674082</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="G2" t="n">
-        <v>150926.4228674082</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="H2" t="n">
-        <v>150926.4228674082</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="I2" t="n">
         <v>158057.2752412056</v>
@@ -26347,13 +26347,13 @@
         <v>158057.2752412056</v>
       </c>
       <c r="N2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.6679090521</v>
       </c>
       <c r="O2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.6679090521</v>
       </c>
       <c r="P2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.667909052</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178196</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518683</v>
+        <v>147420.5464117496</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510018</v>
+        <v>12112.31405579371</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120709</v>
+        <v>19872.31248781274</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379695</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242549</v>
+        <v>123042.5210430562</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.56827099791</v>
+        <v>9350.882464078453</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>161750.2044208488</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>37852.87718644967</v>
+        <v>38301.82333274553</v>
       </c>
       <c r="F4" t="n">
-        <v>39267.66435178972</v>
+        <v>39321.0915008695</v>
       </c>
       <c r="G4" t="n">
-        <v>39267.66435178967</v>
+        <v>39321.0915008695</v>
       </c>
       <c r="H4" t="n">
-        <v>39267.6643517897</v>
+        <v>39321.0915008695</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26451,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640297</v>
+        <v>51403.24928127281</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640303</v>
+        <v>51403.24928127275</v>
       </c>
       <c r="P4" t="n">
-        <v>55396.20108640303</v>
+        <v>51403.24928127275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009792</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445715</v>
+        <v>70604.44784155182</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869434</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869434</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.9238166281</v>
+        <v>73174.64633869434</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099076</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099074</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099074</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228336.4258856231</v>
+        <v>-276451.7744175845</v>
       </c>
       <c r="C6" t="n">
-        <v>-86145.12522591313</v>
+        <v>-52752.07583353973</v>
       </c>
       <c r="D6" t="n">
-        <v>-108732.6571156062</v>
+        <v>-52752.07583353964</v>
       </c>
       <c r="E6" t="n">
-        <v>-137409.3634567386</v>
+        <v>-109226.2165112863</v>
       </c>
       <c r="F6" t="n">
-        <v>21806.4324238902</v>
+        <v>26442.7829219186</v>
       </c>
       <c r="G6" t="n">
-        <v>38618.83469899039</v>
+        <v>38555.09697771228</v>
       </c>
       <c r="H6" t="n">
-        <v>38618.83469899038</v>
+        <v>38555.09697771222</v>
       </c>
       <c r="I6" t="n">
-        <v>18754.53623429329</v>
+        <v>19320.547878305</v>
       </c>
       <c r="J6" t="n">
-        <v>-71798.38063948977</v>
+        <v>-135458.4883515884</v>
       </c>
       <c r="K6" t="n">
-        <v>39216.08470550041</v>
+        <v>39192.86036611774</v>
       </c>
       <c r="L6" t="n">
-        <v>6235.239641703432</v>
+        <v>39192.86036611774</v>
       </c>
       <c r="M6" t="n">
-        <v>-107323.2864187545</v>
+        <v>-83849.66067693844</v>
       </c>
       <c r="N6" t="n">
-        <v>16943.81188363195</v>
+        <v>23172.34248222618</v>
       </c>
       <c r="O6" t="n">
-        <v>29932.38015462978</v>
+        <v>32523.22494630474</v>
       </c>
       <c r="P6" t="n">
-        <v>29932.38015462979</v>
+        <v>32523.22494630462</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318738</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117695</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712888031</v>
+        <v>493.7421592071403</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702206</v>
+        <v>42.27300159773883</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704636</v>
+        <v>74.73013597200952</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117695</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888031</v>
+        <v>493.7421592071403</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117695</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888031</v>
+        <v>493.7421592071403</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702206</v>
+        <v>42.27300159773883</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>154.5173183339553</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.5243745049234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>161.9268490649759</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>256.715830203345</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>157.1756344471136</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>113.7278999628232</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X7" t="n">
-        <v>155.0041870180528</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.01231338098836</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>253.8775775763885</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>88.61216265167974</v>
+        <v>39.52293549722765</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874583</v>
+        <v>11.68860308009807</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874739</v>
+        <v>11.68860308009807</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874739</v>
+        <v>11.688603080098</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>131.8679565343714</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897181</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318738</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318738</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840087</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>87.8130212184885</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>766.0419216851915</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>158.4158969094342</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,10 +35647,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>924.6521327148791</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>18.36946185017405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35817,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>390.7519505994605</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,10 +35902,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>18.36946185017405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>154.9229352147235</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>922.6993899926451</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140017</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778282</v>
+        <v>99.14283051917873</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761945</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881396</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900414</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37792,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>966.1043795919836</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917867</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761945</v>
       </c>
       <c r="L43" t="n">
-        <v>438.669934346789</v>
+        <v>434.1228270881394</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>475.8137214446566</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313926</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140017</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778281</v>
+        <v>99.14283051917867</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033059</v>
+        <v>475.8137214446566</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>435.5969356313924</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
